--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.0868983542685</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N2">
-        <v>19.0868983542685</v>
+        <v>73.299497</v>
       </c>
       <c r="O2">
-        <v>0.2106170354463769</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P2">
-        <v>0.2106170354463769</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q2">
-        <v>924.7214873864923</v>
+        <v>1244.875630243261</v>
       </c>
       <c r="R2">
-        <v>924.7214873864923</v>
+        <v>11203.88067218935</v>
       </c>
       <c r="S2">
-        <v>0.033372021669732</v>
+        <v>0.03538381975691442</v>
       </c>
       <c r="T2">
-        <v>0.033372021669732</v>
+        <v>0.03917584434031</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.2327932854128</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
-        <v>48.2327932854128</v>
+        <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5322314681263929</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P3">
-        <v>0.5322314681263929</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q3">
-        <v>2336.780943652775</v>
+        <v>2737.053377694006</v>
       </c>
       <c r="R3">
-        <v>2336.780943652775</v>
+        <v>24633.48039924605</v>
       </c>
       <c r="S3">
-        <v>0.08433145044503951</v>
+        <v>0.07779685056767763</v>
       </c>
       <c r="T3">
-        <v>0.08433145044503951</v>
+        <v>0.0861342084869209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100611386345226</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N4">
-        <v>0.100611386345226</v>
+        <v>0.567544</v>
       </c>
       <c r="O4">
-        <v>0.001110210340667668</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P4">
-        <v>0.001110210340667668</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q4">
-        <v>4.874417472253576</v>
+        <v>9.638834147672002</v>
       </c>
       <c r="R4">
-        <v>4.874417472253576</v>
+        <v>86.74950732904801</v>
       </c>
       <c r="S4">
-        <v>0.0001759115233399764</v>
+        <v>0.0002739701556221898</v>
       </c>
       <c r="T4">
-        <v>0.0001759115233399764</v>
+        <v>0.0003033310774325901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.2034127328444</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N5">
-        <v>23.2034127328444</v>
+        <v>0.141514</v>
       </c>
       <c r="O5">
-        <v>0.2560412860865626</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P5">
-        <v>0.2560412860865626</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q5">
-        <v>1124.158254343094</v>
+        <v>2.403390707282</v>
       </c>
       <c r="R5">
-        <v>1124.158254343094</v>
+        <v>21.630516365538</v>
       </c>
       <c r="S5">
-        <v>0.04056944078392119</v>
+        <v>6.831296358118239E-05</v>
       </c>
       <c r="T5">
-        <v>0.04056944078392119</v>
+        <v>7.563394924762758E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.6458993053057</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>13.6458993053057</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.04462883962263146</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.04462883962263146</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.0868983542685</v>
+        <v>26.569517</v>
       </c>
       <c r="N6">
-        <v>19.0868983542685</v>
+        <v>53.139034</v>
       </c>
       <c r="O6">
-        <v>0.2106170354463769</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P6">
-        <v>0.2106170354463769</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q6">
-        <v>260.457892992953</v>
+        <v>1353.723241264563</v>
       </c>
       <c r="R6">
-        <v>260.457892992953</v>
+        <v>8122.339447587378</v>
       </c>
       <c r="S6">
-        <v>0.009399593896730441</v>
+        <v>0.03847765833466525</v>
       </c>
       <c r="T6">
-        <v>0.009399593896730441</v>
+        <v>0.02840082960430739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.2327932854128</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N7">
-        <v>48.2327932854128</v>
+        <v>73.299497</v>
       </c>
       <c r="O7">
-        <v>0.5322314681263929</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P7">
-        <v>0.5322314681263929</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q7">
-        <v>658.1798403863679</v>
+        <v>371.3146627877315</v>
       </c>
       <c r="R7">
-        <v>658.1798403863679</v>
+        <v>3341.831965089584</v>
       </c>
       <c r="S7">
-        <v>0.02375287283313048</v>
+        <v>0.01055409133409829</v>
       </c>
       <c r="T7">
-        <v>0.02375287283313048</v>
+        <v>0.01168515559084752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.100611386345226</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
-        <v>0.100611386345226</v>
+        <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.001110210340667668</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P8">
-        <v>0.001110210340667668</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q8">
-        <v>1.372932847034163</v>
+        <v>816.3932422485245</v>
       </c>
       <c r="R8">
-        <v>1.372932847034163</v>
+        <v>7347.53918023672</v>
       </c>
       <c r="S8">
-        <v>4.95473992410444E-05</v>
+        <v>0.02320481711802803</v>
       </c>
       <c r="T8">
-        <v>4.95473992410444E-05</v>
+        <v>0.02569163842701252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2034127328444</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N9">
-        <v>23.2034127328444</v>
+        <v>0.567544</v>
       </c>
       <c r="O9">
-        <v>0.2560412860865626</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P9">
-        <v>0.2560412860865626</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q9">
-        <v>316.6314336918429</v>
+        <v>2.875018487196444</v>
       </c>
       <c r="R9">
-        <v>316.6314336918429</v>
+        <v>25.875166384768</v>
       </c>
       <c r="S9">
-        <v>0.0114268254935295</v>
+        <v>8.171831263889137E-05</v>
       </c>
       <c r="T9">
-        <v>0.0114268254935295</v>
+        <v>9.0475927067439E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.976605029442</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>102.976605029442</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.3367844279017327</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.3367844279017327</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>19.0868983542685</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N10">
-        <v>19.0868983542685</v>
+        <v>0.141514</v>
       </c>
       <c r="O10">
-        <v>0.2106170354463769</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P10">
-        <v>0.2106170354463769</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q10">
-        <v>1965.503993064614</v>
+        <v>0.7168701742897777</v>
       </c>
       <c r="R10">
-        <v>1965.503993064614</v>
+        <v>6.451831568607999</v>
       </c>
       <c r="S10">
-        <v>0.070932537789167</v>
+        <v>2.037601541868133E-05</v>
       </c>
       <c r="T10">
-        <v>0.070932537789167</v>
+        <v>2.255967879674803E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>102.976605029442</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>102.976605029442</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.3367844279017327</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.3367844279017327</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.2327932854128</v>
+        <v>26.569517</v>
       </c>
       <c r="N11">
-        <v>48.2327932854128</v>
+        <v>53.139034</v>
       </c>
       <c r="O11">
-        <v>0.5322314681263929</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P11">
-        <v>0.5322314681263929</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q11">
-        <v>4966.849303618676</v>
+        <v>403.7811301196746</v>
       </c>
       <c r="R11">
-        <v>4966.849303618676</v>
+        <v>2422.686780718048</v>
       </c>
       <c r="S11">
-        <v>0.1792472705042465</v>
+        <v>0.01147690450539697</v>
       </c>
       <c r="T11">
-        <v>0.1792472705042465</v>
+        <v>0.008471243400719876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.100611386345226</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N12">
-        <v>0.100611386345226</v>
+        <v>73.299497</v>
       </c>
       <c r="O12">
-        <v>0.001110210340667668</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P12">
-        <v>0.001110210340667668</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q12">
-        <v>10.36061899313693</v>
+        <v>3035.877030364366</v>
       </c>
       <c r="R12">
-        <v>10.36061899313693</v>
+        <v>27322.8932732793</v>
       </c>
       <c r="S12">
-        <v>0.0003739015544323483</v>
+        <v>0.08629048801090132</v>
       </c>
       <c r="T12">
-        <v>0.0003739015544323483</v>
+        <v>0.09553809480119417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.2034127328444</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N13">
-        <v>23.2034127328444</v>
+        <v>161.160385</v>
       </c>
       <c r="O13">
-        <v>0.2560412860865626</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P13">
-        <v>0.2560412860865626</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q13">
-        <v>2389.408668325243</v>
+        <v>6674.849501711834</v>
       </c>
       <c r="R13">
-        <v>2389.408668325243</v>
+        <v>60073.6455154065</v>
       </c>
       <c r="S13">
-        <v>0.08623071805388684</v>
+        <v>0.1897231064174252</v>
       </c>
       <c r="T13">
-        <v>0.08623071805388684</v>
+        <v>0.2100554133451551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.0868983542685</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N14">
-        <v>19.0868983542685</v>
+        <v>0.567544</v>
       </c>
       <c r="O14">
-        <v>0.2106170354463769</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P14">
-        <v>0.2106170354463769</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q14">
-        <v>2475.5426224024</v>
+        <v>23.50621578373333</v>
       </c>
       <c r="R14">
-        <v>2475.5426224024</v>
+        <v>211.5559420536</v>
       </c>
       <c r="S14">
-        <v>0.0893391828415783</v>
+        <v>0.0006681307612200802</v>
       </c>
       <c r="T14">
-        <v>0.0893391828415783</v>
+        <v>0.000739733213665149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>48.2327932854128</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N15">
-        <v>48.2327932854128</v>
+        <v>0.141514</v>
       </c>
       <c r="O15">
-        <v>0.5322314681263929</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P15">
-        <v>0.5322314681263929</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q15">
-        <v>6255.722294914464</v>
+        <v>5.861146660733334</v>
       </c>
       <c r="R15">
-        <v>6255.722294914464</v>
+        <v>52.75031994659999</v>
       </c>
       <c r="S15">
-        <v>0.2257610565271273</v>
+        <v>0.0001665947601301369</v>
       </c>
       <c r="T15">
-        <v>0.2257610565271273</v>
+        <v>0.0001844484409994818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.100611386345226</v>
+        <v>26.569517</v>
       </c>
       <c r="N16">
-        <v>0.100611386345226</v>
+        <v>53.139034</v>
       </c>
       <c r="O16">
-        <v>0.001110210340667668</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P16">
-        <v>0.001110210340667668</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q16">
-        <v>13.04914871833545</v>
+        <v>3301.3235971391</v>
       </c>
       <c r="R16">
-        <v>13.04914871833545</v>
+        <v>19807.9415828346</v>
       </c>
       <c r="S16">
-        <v>0.0004709271707642676</v>
+        <v>0.09383542924492125</v>
       </c>
       <c r="T16">
-        <v>0.0004709271707642676</v>
+        <v>0.06926107648372921</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.2034127328444</v>
+        <v>24.43316566666667</v>
       </c>
       <c r="N17">
-        <v>23.2034127328444</v>
+        <v>73.299497</v>
       </c>
       <c r="O17">
-        <v>0.2560412860865626</v>
+        <v>0.2327873509383368</v>
       </c>
       <c r="P17">
-        <v>0.2560412860865626</v>
+        <v>0.2542402694696193</v>
       </c>
       <c r="Q17">
-        <v>3009.44847817587</v>
+        <v>3204.739777395879</v>
       </c>
       <c r="R17">
-        <v>3009.44847817587</v>
+        <v>28842.65799656291</v>
       </c>
       <c r="S17">
-        <v>0.1086071657223764</v>
+        <v>0.09109017149691581</v>
       </c>
       <c r="T17">
-        <v>0.1086071657223764</v>
+        <v>0.1008521523117352</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.0868983542685</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N18">
-        <v>19.0868983542685</v>
+        <v>161.160385</v>
       </c>
       <c r="O18">
-        <v>0.2106170354463769</v>
+        <v>0.511819325313412</v>
       </c>
       <c r="P18">
-        <v>0.2106170354463769</v>
+        <v>0.558986915152059</v>
       </c>
       <c r="Q18">
-        <v>209.8632951884308</v>
+        <v>7046.120607757161</v>
       </c>
       <c r="R18">
-        <v>209.8632951884308</v>
+        <v>63415.08546981445</v>
       </c>
       <c r="S18">
-        <v>0.007573699249169172</v>
+        <v>0.200275959713052</v>
       </c>
       <c r="T18">
-        <v>0.007573699249169172</v>
+        <v>0.2217391982190257</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.2327932854128</v>
+        <v>0.1891813333333333</v>
       </c>
       <c r="N19">
-        <v>48.2327932854128</v>
+        <v>0.567544</v>
       </c>
       <c r="O19">
-        <v>0.5322314681263929</v>
+        <v>0.001802427979839308</v>
       </c>
       <c r="P19">
-        <v>0.5322314681263929</v>
+        <v>0.001968533829036584</v>
       </c>
       <c r="Q19">
-        <v>530.3267585513939</v>
+        <v>24.81368776954045</v>
       </c>
       <c r="R19">
-        <v>530.3267585513939</v>
+        <v>223.323189925864</v>
       </c>
       <c r="S19">
-        <v>0.01913881781684915</v>
+        <v>0.0007052937933809503</v>
       </c>
       <c r="T19">
-        <v>0.01913881781684915</v>
+        <v>0.0007808789456169314</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.100611386345226</v>
+        <v>0.04717133333333334</v>
       </c>
       <c r="N20">
-        <v>0.100611386345226</v>
+        <v>0.141514</v>
       </c>
       <c r="O20">
-        <v>0.001110210340667668</v>
+        <v>0.0004494255831071773</v>
       </c>
       <c r="P20">
-        <v>0.001110210340667668</v>
+        <v>0.0004908431703661446</v>
       </c>
       <c r="Q20">
-        <v>1.10623720417956</v>
+        <v>6.187157667103778</v>
       </c>
       <c r="R20">
-        <v>1.10623720417956</v>
+        <v>55.684419003934</v>
       </c>
       <c r="S20">
-        <v>3.992269289003143E-05</v>
+        <v>0.0001758611594458083</v>
       </c>
       <c r="T20">
-        <v>3.992269289003143E-05</v>
+        <v>0.0001947079047792496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2034127328444</v>
+        <v>26.569517</v>
       </c>
       <c r="N21">
-        <v>23.2034127328444</v>
+        <v>53.139034</v>
       </c>
       <c r="O21">
-        <v>0.2560412860865626</v>
+        <v>0.2531414701853045</v>
       </c>
       <c r="P21">
-        <v>0.2560412860865626</v>
+        <v>0.1843134383789191</v>
       </c>
       <c r="Q21">
-        <v>255.1249849687033</v>
+        <v>3484.951117581176</v>
       </c>
       <c r="R21">
-        <v>255.1249849687033</v>
+        <v>20909.70670548706</v>
       </c>
       <c r="S21">
-        <v>0.009207136032848699</v>
+        <v>0.09905478042176279</v>
       </c>
       <c r="T21">
-        <v>0.009207136032848699</v>
+        <v>0.07311354333941028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>13.634385</v>
+      </c>
+      <c r="H22">
+        <v>27.26877</v>
+      </c>
+      <c r="I22">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J22">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.43316566666667</v>
+      </c>
+      <c r="N22">
+        <v>73.299497</v>
+      </c>
+      <c r="O22">
+        <v>0.2327873509383368</v>
+      </c>
+      <c r="P22">
+        <v>0.2542402694696193</v>
+      </c>
+      <c r="Q22">
+        <v>333.131187468115</v>
+      </c>
+      <c r="R22">
+        <v>1998.78712480869</v>
+      </c>
+      <c r="S22">
+        <v>0.009468780339506898</v>
+      </c>
+      <c r="T22">
+        <v>0.006989022425532457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>13.634385</v>
+      </c>
+      <c r="H23">
+        <v>27.26877</v>
+      </c>
+      <c r="I23">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J23">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.72012833333334</v>
+      </c>
+      <c r="N23">
+        <v>161.160385</v>
+      </c>
+      <c r="O23">
+        <v>0.511819325313412</v>
+      </c>
+      <c r="P23">
+        <v>0.558986915152059</v>
+      </c>
+      <c r="Q23">
+        <v>732.4409119460752</v>
+      </c>
+      <c r="R23">
+        <v>4394.64547167645</v>
+      </c>
+      <c r="S23">
+        <v>0.020818591497229</v>
+      </c>
+      <c r="T23">
+        <v>0.01536645667394477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>13.634385</v>
+      </c>
+      <c r="H24">
+        <v>27.26877</v>
+      </c>
+      <c r="I24">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J24">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1891813333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.567544</v>
+      </c>
+      <c r="O24">
+        <v>0.001802427979839308</v>
+      </c>
+      <c r="P24">
+        <v>0.001968533829036584</v>
+      </c>
+      <c r="Q24">
+        <v>2.57937113348</v>
+      </c>
+      <c r="R24">
+        <v>15.47622680088</v>
+      </c>
+      <c r="S24">
+        <v>7.331495697719594E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.411466525447498E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>13.634385</v>
+      </c>
+      <c r="H25">
+        <v>27.26877</v>
+      </c>
+      <c r="I25">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J25">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.04717133333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.141514</v>
+      </c>
+      <c r="O25">
+        <v>0.0004494255831071773</v>
+      </c>
+      <c r="P25">
+        <v>0.0004908431703661446</v>
+      </c>
+      <c r="Q25">
+        <v>0.6431521196300001</v>
+      </c>
+      <c r="R25">
+        <v>3.85891271778</v>
+      </c>
+      <c r="S25">
+        <v>1.828068453136833E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.349319654303767E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>13.634385</v>
+      </c>
+      <c r="H26">
+        <v>27.26877</v>
+      </c>
+      <c r="I26">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J26">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.569517</v>
+      </c>
+      <c r="N26">
+        <v>53.139034</v>
+      </c>
+      <c r="O26">
+        <v>0.2531414701853045</v>
+      </c>
+      <c r="P26">
+        <v>0.1843134383789191</v>
+      </c>
+      <c r="Q26">
+        <v>362.259024042045</v>
+      </c>
+      <c r="R26">
+        <v>1449.03609616818</v>
+      </c>
+      <c r="S26">
+        <v>0.01029669767855819</v>
+      </c>
+      <c r="T26">
+        <v>0.005066745550752302</v>
       </c>
     </row>
   </sheetData>
